--- a/Donnés_Smartphone/excelDonnesSmartphone.xlsx
+++ b/Donnés_Smartphone/excelDonnesSmartphone.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Desktop\donnesSmartphone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t xml:space="preserve">Modèle </t>
   </si>
@@ -294,6 +294,108 @@
   </si>
   <si>
     <t>https://fdn2.gsmarena.com/vv/pics/xiaomi/xiaomi-12s-pro-1.jpg</t>
+  </si>
+  <si>
+    <t>RAM(Gb)</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Poids(g)</t>
+  </si>
+  <si>
+    <t>Capacité de la battrie(mAh)</t>
+  </si>
+  <si>
+    <t>Mali G710 MP7</t>
+  </si>
+  <si>
+    <t>CPU(chipset)</t>
+  </si>
+  <si>
+    <t>Google Tensor G2</t>
+  </si>
+  <si>
+    <t>Date de sortie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Tensor </t>
+  </si>
+  <si>
+    <t>Mali G78 MP20</t>
+  </si>
+  <si>
+    <t>A16 Bionic</t>
+  </si>
+  <si>
+    <t>A15 Bionic</t>
+  </si>
+  <si>
+    <t>Apple GPU 5core</t>
+  </si>
+  <si>
+    <t>Adreno 730</t>
+  </si>
+  <si>
+    <t>Snapdragon 8+ Gen1</t>
+  </si>
+  <si>
+    <t>Snapdragon 680 4G</t>
+  </si>
+  <si>
+    <t>Adreno 610</t>
+  </si>
+  <si>
+    <t>Snapdragon 732G</t>
+  </si>
+  <si>
+    <t>Adreno 618</t>
+  </si>
+  <si>
+    <t>Adreno 740</t>
+  </si>
+  <si>
+    <t>Mediatek Dimension 1300</t>
+  </si>
+  <si>
+    <t>Mali G77 MC9</t>
+  </si>
+  <si>
+    <t>Mediatec Dimensity 8100Max</t>
+  </si>
+  <si>
+    <t>Mali G610 MC6</t>
+  </si>
+  <si>
+    <t>Snapdragon 695 5G</t>
+  </si>
+  <si>
+    <t>Adreno 619</t>
+  </si>
+  <si>
+    <t>Snapdragon 8 Gen2</t>
+  </si>
+  <si>
+    <t>Mali-G57 MC2</t>
+  </si>
+  <si>
+    <t>PowerVR GE8320</t>
+  </si>
+  <si>
+    <t>Snapdragon 8 Gen 1</t>
+  </si>
+  <si>
+    <t>Snapdragon 8 Gen 2</t>
+  </si>
+  <si>
+    <t>Mediatek MT6833 Dimensity 700</t>
+  </si>
+  <si>
+    <t>Mediatek MT6765 Helio G35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Snapdragon 8 Gen 1</t>
   </si>
 </sst>
 </file>
@@ -408,7 +510,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -450,6 +552,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -742,26 +846,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -789,8 +899,26 @@
       <c r="I1" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -818,8 +946,26 @@
       <c r="I2" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>212</v>
+      </c>
+      <c r="L2">
+        <v>5000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="26">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -847,8 +993,26 @@
       <c r="I3" s="23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>197</v>
+      </c>
+      <c r="L3">
+        <v>4355</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="26">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -876,8 +1040,26 @@
       <c r="I4" s="24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>178</v>
+      </c>
+      <c r="L4">
+        <v>4410</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="26">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -905,8 +1087,26 @@
       <c r="I5" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>172</v>
+      </c>
+      <c r="L5">
+        <v>3279</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="26">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -934,8 +1134,26 @@
       <c r="I6" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>206</v>
+      </c>
+      <c r="L6">
+        <v>3200</v>
+      </c>
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="26">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -963,8 +1181,26 @@
       <c r="I7" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>240</v>
+      </c>
+      <c r="L7">
+        <v>4323</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" s="26">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -992,8 +1228,26 @@
       <c r="I8" s="24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>204</v>
+      </c>
+      <c r="L8">
+        <v>3095</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="26">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1021,8 +1275,26 @@
       <c r="I9" s="23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>174</v>
+      </c>
+      <c r="L9">
+        <v>3240</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="26">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1050,8 +1322,26 @@
       <c r="I10" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>225</v>
+      </c>
+      <c r="L10">
+        <v>4860</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="26">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1079,8 +1369,26 @@
       <c r="I11" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>203</v>
+      </c>
+      <c r="L11">
+        <v>4600</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="26">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1108,8 +1416,26 @@
       <c r="I12" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>179</v>
+      </c>
+      <c r="L12">
+        <v>5000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="26">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1137,8 +1463,26 @@
       <c r="I13" s="23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>157</v>
+      </c>
+      <c r="L13">
+        <v>4250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="26">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1166,8 +1510,26 @@
       <c r="I14" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>204</v>
+      </c>
+      <c r="L14">
+        <v>4800</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="26">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1195,8 +1557,26 @@
       <c r="I15" s="23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>205</v>
+      </c>
+      <c r="L15">
+        <v>5000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="26">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1224,8 +1604,26 @@
       <c r="I16" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>201</v>
+      </c>
+      <c r="L16">
+        <v>5000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="26">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1253,8 +1651,26 @@
       <c r="I17" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>179</v>
+      </c>
+      <c r="L17">
+        <v>4500</v>
+      </c>
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="26">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1282,8 +1698,26 @@
       <c r="I18" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>183</v>
+      </c>
+      <c r="L18">
+        <v>4500</v>
+      </c>
+      <c r="M18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="26">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1311,8 +1745,26 @@
       <c r="I19" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>185</v>
+      </c>
+      <c r="L19">
+        <v>4200</v>
+      </c>
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="26">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1340,8 +1792,26 @@
       <c r="I20" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>239</v>
+      </c>
+      <c r="L20">
+        <v>6000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="26">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1369,8 +1839,26 @@
       <c r="I21" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>239</v>
+      </c>
+      <c r="L21">
+        <v>6000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="26">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1398,8 +1886,26 @@
       <c r="I22" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>219</v>
+      </c>
+      <c r="L22">
+        <v>5100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>116</v>
+      </c>
+      <c r="N22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="26">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1427,8 +1933,26 @@
       <c r="I23" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>175</v>
+      </c>
+      <c r="L23">
+        <v>5100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O23" s="26">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1456,8 +1980,26 @@
       <c r="I24" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>195</v>
+      </c>
+      <c r="L24">
+        <v>4500</v>
+      </c>
+      <c r="M24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="26">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1485,8 +2027,26 @@
       <c r="I25" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>168</v>
+      </c>
+      <c r="L25">
+        <v>3900</v>
+      </c>
+      <c r="M25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="26">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1514,8 +2074,26 @@
       <c r="I26" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>234</v>
+      </c>
+      <c r="L26">
+        <v>5000</v>
+      </c>
+      <c r="M26" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="26">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1543,8 +2121,26 @@
       <c r="I27" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>203</v>
+      </c>
+      <c r="L27">
+        <v>5000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" s="26">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1572,8 +2168,26 @@
       <c r="I28" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>189</v>
+      </c>
+      <c r="L28">
+        <v>5000</v>
+      </c>
+      <c r="M28" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="26">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1601,8 +2215,26 @@
       <c r="I29" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>188</v>
+      </c>
+      <c r="L29">
+        <v>5000</v>
+      </c>
+      <c r="M29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="26">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1630,8 +2262,26 @@
       <c r="I30" s="21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>172</v>
+      </c>
+      <c r="L30">
+        <v>5000</v>
+      </c>
+      <c r="M30" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="26">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1658,6 +2308,24 @@
       </c>
       <c r="I31" s="22" t="s">
         <v>72</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>185</v>
+      </c>
+      <c r="L31">
+        <v>5000</v>
+      </c>
+      <c r="M31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="26">
+        <v>44723</v>
       </c>
     </row>
   </sheetData>

--- a/Donnés_Smartphone/excelDonnesSmartphone.xlsx
+++ b/Donnés_Smartphone/excelDonnesSmartphone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohalizadeh\Desktop\Proj306_SCHAFSTALL-main\Donnés_Smartphone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t xml:space="preserve">Modèle </t>
   </si>
@@ -128,9 +128,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Xiomi</t>
-  </si>
-  <si>
     <t>Oneplus</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Adreno 740</t>
   </si>
   <si>
-    <t>Mediatek Dimension 1300</t>
-  </si>
-  <si>
     <t>Mali G77 MC9</t>
   </si>
   <si>
@@ -396,12 +390,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Snapdragon 8 Gen 1</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Snapdragon 8 Gen1</t>
+  </si>
+  <si>
+    <t>Mediatek Dimensity 1300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +462,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,7 +528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -554,6 +572,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -848,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -882,40 +913,40 @@
         <v>31</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="J1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -931,20 +962,20 @@
       <c r="D2" s="9">
         <v>128</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>44</v>
+      <c r="E2" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="16">
         <v>694</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="14">
         <v>17.23</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>8</v>
@@ -956,10 +987,10 @@
         <v>5000</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" s="26">
         <v>44847</v>
@@ -978,20 +1009,20 @@
       <c r="D3" s="10">
         <v>128</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="29">
         <v>6.3</v>
       </c>
       <c r="F3" s="17">
         <v>526</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="15">
         <v>19.75</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1003,10 +1034,10 @@
         <v>4355</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="26">
         <v>44847</v>
@@ -1025,20 +1056,20 @@
       <c r="D4" s="9">
         <v>128</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
+      <c r="E4" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="16">
         <v>283</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="14">
         <v>19.98</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -1050,10 +1081,10 @@
         <v>4410</v>
       </c>
       <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
         <v>98</v>
-      </c>
-      <c r="N4" t="s">
-        <v>99</v>
       </c>
       <c r="O4" s="26">
         <v>44763</v>
@@ -1072,20 +1103,20 @@
       <c r="D5" s="10">
         <v>128</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>45</v>
+      <c r="E5" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="17">
         <v>709</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="15">
         <v>18.46</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -1097,10 +1128,10 @@
         <v>3279</v>
       </c>
       <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
         <v>101</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
       </c>
       <c r="O5" s="26">
         <v>44820</v>
@@ -1119,20 +1150,20 @@
       <c r="D6" s="9">
         <v>256</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
+      <c r="E6" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>1259</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14">
         <v>17.3</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1144,10 +1175,10 @@
         <v>3200</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O6" s="26">
         <v>44820</v>
@@ -1166,20 +1197,20 @@
       <c r="D7" s="10">
         <v>512</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>44</v>
+      <c r="E7" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="17">
         <v>1577</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="15">
         <v>24.63</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1191,10 +1222,10 @@
         <v>4323</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="26">
         <v>44820</v>
@@ -1213,20 +1244,20 @@
       <c r="D8" s="9">
         <v>128</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>45</v>
+      <c r="E8" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="16">
         <v>999</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="14">
         <v>18.329999999999998</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1238,10 +1269,10 @@
         <v>3095</v>
       </c>
       <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
       </c>
       <c r="O8" s="26">
         <v>44463</v>
@@ -1260,20 +1291,20 @@
       <c r="D9" s="10">
         <v>128</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>45</v>
+      <c r="E9" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="17">
         <v>649</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="15">
         <v>16.829999999999998</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -1285,10 +1316,10 @@
         <v>3240</v>
       </c>
       <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
         <v>101</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
       </c>
       <c r="O9" s="26">
         <v>44463</v>
@@ -1301,8 +1332,8 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
+      <c r="C10" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="9">
         <v>256</v>
@@ -1314,13 +1345,13 @@
         <v>920</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="14">
         <v>16.260000000000002</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1332,10 +1363,10 @@
         <v>4860</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O10" s="26">
         <v>44751</v>
@@ -1348,26 +1379,26 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
+      <c r="C11" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="D11" s="10">
         <v>128</v>
       </c>
-      <c r="E11" s="15">
-        <v>6.67</v>
+      <c r="E11" s="31">
+        <v>6.73</v>
       </c>
       <c r="F11" s="17">
         <v>670</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="15">
         <v>14.45</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -1379,10 +1410,10 @@
         <v>4600</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" s="26">
         <v>44749</v>
@@ -1395,8 +1426,8 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
+      <c r="C12" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D12" s="9">
         <v>64</v>
@@ -1408,13 +1439,13 @@
         <v>170</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="14">
         <v>20.86</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -1426,10 +1457,10 @@
         <v>5000</v>
       </c>
       <c r="M12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" t="s">
         <v>105</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
       </c>
       <c r="O12" s="26">
         <v>44601</v>
@@ -1442,8 +1473,8 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>34</v>
+      <c r="C13" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="10">
         <v>64</v>
@@ -1455,13 +1486,13 @@
         <v>297</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="15">
         <v>14.38</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -1473,10 +1504,10 @@
         <v>4250</v>
       </c>
       <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
         <v>107</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
       </c>
       <c r="O13" s="26">
         <v>44302</v>
@@ -1490,25 +1521,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9">
         <v>128</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>44</v>
+      <c r="E14" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="16">
         <v>419</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="14">
         <v>17.399999999999999</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -1520,10 +1551,10 @@
         <v>4800</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O14" s="26">
         <v>44779</v>
@@ -1537,25 +1568,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10">
         <v>128</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>44</v>
+      <c r="E15" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="17">
         <v>645</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="15">
         <v>19</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -1567,10 +1598,10 @@
         <v>5000</v>
       </c>
       <c r="M15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="26">
         <v>44935</v>
@@ -1584,25 +1615,25 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9">
         <v>128</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
+      <c r="E16" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="16">
         <v>469</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="14">
         <v>16.329999999999998</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>8</v>
@@ -1613,11 +1644,11 @@
       <c r="L16">
         <v>5000</v>
       </c>
-      <c r="M16" t="s">
-        <v>104</v>
+      <c r="M16" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O16" s="26">
         <v>44574</v>
@@ -1631,25 +1662,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10">
         <v>128</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>46</v>
+      <c r="E17" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="17">
         <v>415</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="15">
         <v>18.45</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -1660,11 +1691,11 @@
       <c r="L17">
         <v>4500</v>
       </c>
-      <c r="M17" t="s">
-        <v>110</v>
+      <c r="M17" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O17" s="26">
         <v>44767</v>
@@ -1678,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9">
         <v>256</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>44</v>
+      <c r="E18" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="16">
         <v>728</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="14">
         <v>17.45</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>8</v>
@@ -1708,10 +1739,10 @@
         <v>4500</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O18" s="26">
         <v>44761</v>
@@ -1725,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10">
         <v>128</v>
@@ -1737,13 +1768,13 @@
         <v>433</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="15">
         <v>20.86</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1755,10 +1786,10 @@
         <v>4200</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O19" s="26">
         <v>44825</v>
@@ -1772,7 +1803,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9">
         <v>512</v>
@@ -1784,13 +1815,13 @@
         <v>1400</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="14">
         <v>29.02</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -1802,13 +1833,13 @@
         <v>6000</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="26">
-        <v>45047</v>
+        <v>108</v>
+      </c>
+      <c r="O20" s="33">
+        <v>45058</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1819,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="10">
         <v>256</v>
@@ -1831,13 +1862,13 @@
         <v>1000</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="15">
         <v>28.45</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21">
         <v>12</v>
@@ -1849,13 +1880,13 @@
         <v>6000</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="26">
-        <v>45047</v>
+        <v>108</v>
+      </c>
+      <c r="O21" s="33">
+        <v>45058</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1866,7 +1897,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9">
         <v>256</v>
@@ -1878,13 +1909,13 @@
         <v>949</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="14">
         <v>19.36</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1896,10 +1927,10 @@
         <v>5100</v>
       </c>
       <c r="M22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="26">
         <v>45016</v>
@@ -1913,7 +1944,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10">
         <v>128</v>
@@ -1925,13 +1956,13 @@
         <v>299</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="15">
         <v>11.05</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -1943,10 +1974,10 @@
         <v>5100</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O23" s="26">
         <v>44932</v>
@@ -1960,25 +1991,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="9">
         <v>128</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>49</v>
+      <c r="E24" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="F24" s="16">
         <v>898</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="14">
         <v>17.45</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24">
         <v>8</v>
@@ -1990,10 +2021,10 @@
         <v>4500</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O24" s="26">
         <v>44617</v>
@@ -2007,25 +2038,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="10">
         <v>128</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>45</v>
+      <c r="E25" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="17">
         <v>699</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="15">
         <v>17.079999999999998</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25">
         <v>8</v>
@@ -2037,10 +2068,10 @@
         <v>3900</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="26">
         <v>44974</v>
@@ -2054,25 +2085,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9">
         <v>256</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>48</v>
+      <c r="E26" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="F26" s="16">
         <v>1127</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="14">
         <v>23.48</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26">
         <v>8</v>
@@ -2084,10 +2115,10 @@
         <v>5000</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="26">
         <v>44974</v>
@@ -2101,25 +2132,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10">
         <v>64</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>49</v>
+      <c r="E27" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="F27" s="17">
         <v>187</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="15">
         <v>15.81</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2131,10 +2162,10 @@
         <v>5000</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O27" s="26">
         <v>44371</v>
@@ -2148,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="9">
         <v>64</v>
@@ -2160,13 +2191,13 @@
         <v>138</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="14">
         <v>16.2</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2178,10 +2209,10 @@
         <v>5000</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O28" s="26">
         <v>44830</v>
@@ -2195,7 +2226,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="10">
         <v>128</v>
@@ -2207,13 +2238,13 @@
         <v>230</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="15">
         <v>16.100000000000001</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29">
         <v>8</v>
@@ -2225,10 +2256,10 @@
         <v>5000</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O29" s="26">
         <v>44933</v>
@@ -2242,25 +2273,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="9">
         <v>128</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>45</v>
+      <c r="E30" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="16">
         <v>728</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="14">
         <v>19.3</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30">
         <v>8</v>
@@ -2272,10 +2303,10 @@
         <v>5000</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" s="26">
         <v>44826</v>
@@ -2289,25 +2320,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="10">
         <v>256</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>47</v>
+      <c r="E31" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="17">
         <v>799</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="15">
         <v>15.1</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <v>12</v>
@@ -2319,10 +2350,10 @@
         <v>5000</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="26">
         <v>44723</v>

--- a/Donnés_Smartphone/excelDonnesSmartphone.xlsx
+++ b/Donnés_Smartphone/excelDonnesSmartphone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethschafsta\Desktop\Proj306_SCHAFSTALL-Mohammad-modaal-patch-1\Donnés_Smartphone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t xml:space="preserve">Modèle </t>
   </si>
@@ -128,9 +128,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Xiomi</t>
-  </si>
-  <si>
     <t>Oneplus</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Adreno 740</t>
   </si>
   <si>
-    <t>Mediatek Dimension 1300</t>
-  </si>
-  <si>
     <t>Mali G77 MC9</t>
   </si>
   <si>
@@ -396,12 +390,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Snapdragon 8 Gen 1</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Snapdragon 8 Gen1</t>
+  </si>
+  <si>
+    <t>Mediatek Dimensity 1300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +464,20 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,13 +522,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -554,6 +592,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -848,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +926,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -882,40 +935,40 @@
         <v>31</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="J1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -931,20 +984,20 @@
       <c r="D2" s="9">
         <v>128</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>44</v>
+      <c r="E2" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="16">
         <v>694</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="14">
         <v>17.23</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2">
         <v>8</v>
@@ -956,10 +1009,10 @@
         <v>5000</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" s="26">
         <v>44847</v>
@@ -978,20 +1031,20 @@
       <c r="D3" s="10">
         <v>128</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="27">
         <v>6.3</v>
       </c>
       <c r="F3" s="17">
         <v>526</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="15">
         <v>19.75</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -1003,10 +1056,10 @@
         <v>4355</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="26">
         <v>44847</v>
@@ -1025,20 +1078,20 @@
       <c r="D4" s="9">
         <v>128</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
+      <c r="E4" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="16">
         <v>283</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="14">
         <v>19.98</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -1050,10 +1103,10 @@
         <v>4410</v>
       </c>
       <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
         <v>98</v>
-      </c>
-      <c r="N4" t="s">
-        <v>99</v>
       </c>
       <c r="O4" s="26">
         <v>44763</v>
@@ -1072,20 +1125,20 @@
       <c r="D5" s="10">
         <v>128</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>45</v>
+      <c r="E5" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="17">
         <v>709</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="15">
         <v>18.46</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -1097,10 +1150,10 @@
         <v>3279</v>
       </c>
       <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
         <v>101</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
       </c>
       <c r="O5" s="26">
         <v>44820</v>
@@ -1119,20 +1172,20 @@
       <c r="D6" s="9">
         <v>256</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
+      <c r="E6" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>1259</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14">
         <v>17.3</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1144,10 +1197,10 @@
         <v>3200</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O6" s="26">
         <v>44820</v>
@@ -1166,20 +1219,20 @@
       <c r="D7" s="10">
         <v>512</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>44</v>
+      <c r="E7" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="17">
         <v>1577</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="15">
         <v>24.63</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1191,10 +1244,10 @@
         <v>4323</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="26">
         <v>44820</v>
@@ -1213,20 +1266,20 @@
       <c r="D8" s="9">
         <v>128</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>45</v>
+      <c r="E8" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="16">
         <v>999</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="14">
         <v>18.329999999999998</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1238,10 +1291,10 @@
         <v>3095</v>
       </c>
       <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
       </c>
       <c r="O8" s="26">
         <v>44463</v>
@@ -1260,20 +1313,20 @@
       <c r="D9" s="10">
         <v>128</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>45</v>
+      <c r="E9" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="17">
         <v>649</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="15">
         <v>16.829999999999998</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -1285,10 +1338,10 @@
         <v>3240</v>
       </c>
       <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
         <v>101</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
       </c>
       <c r="O9" s="26">
         <v>44463</v>
@@ -1301,8 +1354,8 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
+      <c r="C10" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="9">
         <v>256</v>
@@ -1314,13 +1367,13 @@
         <v>920</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="14">
         <v>16.260000000000002</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -1332,10 +1385,10 @@
         <v>4860</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O10" s="26">
         <v>44751</v>
@@ -1348,26 +1401,26 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
+      <c r="C11" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="D11" s="10">
         <v>128</v>
       </c>
-      <c r="E11" s="15">
-        <v>6.67</v>
+      <c r="E11" s="31">
+        <v>6.73</v>
       </c>
       <c r="F11" s="17">
         <v>670</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="15">
         <v>14.45</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -1379,10 +1432,10 @@
         <v>4600</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" s="26">
         <v>44749</v>
@@ -1395,8 +1448,8 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
+      <c r="C12" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="D12" s="9">
         <v>64</v>
@@ -1408,13 +1461,13 @@
         <v>170</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="14">
         <v>20.86</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -1426,10 +1479,10 @@
         <v>5000</v>
       </c>
       <c r="M12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" t="s">
         <v>105</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
       </c>
       <c r="O12" s="26">
         <v>44601</v>
@@ -1442,8 +1495,8 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>34</v>
+      <c r="C13" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="D13" s="10">
         <v>64</v>
@@ -1455,13 +1508,13 @@
         <v>297</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="15">
         <v>14.38</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -1473,10 +1526,10 @@
         <v>4250</v>
       </c>
       <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
         <v>107</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
       </c>
       <c r="O13" s="26">
         <v>44302</v>
@@ -1490,25 +1543,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9">
         <v>128</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>44</v>
+      <c r="E14" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="16">
         <v>419</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="14">
         <v>17.399999999999999</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -1520,10 +1573,10 @@
         <v>4800</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O14" s="26">
         <v>44779</v>
@@ -1537,25 +1590,25 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10">
         <v>128</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>44</v>
+      <c r="E15" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="17">
         <v>645</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="15">
         <v>19</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -1567,10 +1620,10 @@
         <v>5000</v>
       </c>
       <c r="M15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="26">
         <v>44935</v>
@@ -1584,25 +1637,25 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9">
         <v>128</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>44</v>
+      <c r="E16" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="16">
         <v>469</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="14">
         <v>16.329999999999998</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16">
         <v>8</v>
@@ -1613,11 +1666,11 @@
       <c r="L16">
         <v>5000</v>
       </c>
-      <c r="M16" t="s">
-        <v>104</v>
+      <c r="M16" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O16" s="26">
         <v>44574</v>
@@ -1631,25 +1684,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10">
         <v>128</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>46</v>
+      <c r="E17" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="17">
         <v>415</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="15">
         <v>18.45</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -1660,11 +1713,11 @@
       <c r="L17">
         <v>4500</v>
       </c>
-      <c r="M17" t="s">
-        <v>110</v>
+      <c r="M17" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O17" s="26">
         <v>44767</v>
@@ -1678,25 +1731,25 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9">
         <v>256</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>44</v>
+      <c r="E18" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="16">
         <v>728</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="14">
         <v>17.45</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>8</v>
@@ -1708,10 +1761,10 @@
         <v>4500</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O18" s="26">
         <v>44761</v>
@@ -1725,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="10">
         <v>128</v>
@@ -1737,13 +1790,13 @@
         <v>433</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="15">
         <v>20.86</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1755,10 +1808,10 @@
         <v>4200</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O19" s="26">
         <v>44825</v>
@@ -1772,7 +1825,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9">
         <v>512</v>
@@ -1784,13 +1837,13 @@
         <v>1400</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="14">
         <v>29.02</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -1802,13 +1855,13 @@
         <v>6000</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="26">
-        <v>45047</v>
+        <v>108</v>
+      </c>
+      <c r="O20" s="30">
+        <v>45058</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1819,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="10">
         <v>256</v>
@@ -1831,13 +1884,13 @@
         <v>1000</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="15">
         <v>28.45</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21">
         <v>12</v>
@@ -1849,13 +1902,13 @@
         <v>6000</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="26">
-        <v>45047</v>
+        <v>108</v>
+      </c>
+      <c r="O21" s="30">
+        <v>45058</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1866,7 +1919,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9">
         <v>256</v>
@@ -1878,13 +1931,13 @@
         <v>949</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="14">
         <v>19.36</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1896,10 +1949,10 @@
         <v>5100</v>
       </c>
       <c r="M22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="26">
         <v>45016</v>
@@ -1913,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10">
         <v>128</v>
@@ -1925,13 +1978,13 @@
         <v>299</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="15">
         <v>11.05</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -1943,10 +1996,10 @@
         <v>5100</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O23" s="26">
         <v>44932</v>
@@ -1960,25 +2013,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="9">
         <v>128</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>49</v>
+      <c r="E24" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="F24" s="16">
         <v>898</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="14">
         <v>17.45</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24">
         <v>8</v>
@@ -1990,10 +2043,10 @@
         <v>4500</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O24" s="26">
         <v>44617</v>
@@ -2007,25 +2060,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="10">
         <v>128</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>45</v>
+      <c r="E25" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="17">
         <v>699</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="15">
         <v>17.079999999999998</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25">
         <v>8</v>
@@ -2037,10 +2090,10 @@
         <v>3900</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="26">
         <v>44974</v>
@@ -2054,25 +2107,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9">
         <v>256</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>48</v>
+      <c r="E26" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="F26" s="16">
         <v>1127</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="14">
         <v>23.48</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26">
         <v>8</v>
@@ -2084,10 +2137,10 @@
         <v>5000</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="26">
         <v>44974</v>
@@ -2101,25 +2154,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10">
         <v>64</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>49</v>
+      <c r="E27" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="F27" s="17">
         <v>187</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="15">
         <v>15.81</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2131,10 +2184,10 @@
         <v>5000</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O27" s="26">
         <v>44371</v>
@@ -2148,7 +2201,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="9">
         <v>64</v>
@@ -2160,13 +2213,13 @@
         <v>138</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="14">
         <v>16.2</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -2178,10 +2231,10 @@
         <v>5000</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O28" s="26">
         <v>44830</v>
@@ -2195,7 +2248,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="10">
         <v>128</v>
@@ -2207,13 +2260,13 @@
         <v>230</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="15">
         <v>16.100000000000001</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29">
         <v>8</v>
@@ -2225,10 +2278,10 @@
         <v>5000</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O29" s="26">
         <v>44933</v>
@@ -2242,25 +2295,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="9">
         <v>128</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>45</v>
+      <c r="E30" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="16">
         <v>728</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="14">
         <v>19.3</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30">
         <v>8</v>
@@ -2272,10 +2325,10 @@
         <v>5000</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" s="26">
         <v>44826</v>
@@ -2289,25 +2342,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="10">
         <v>256</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>47</v>
+      <c r="E31" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="17">
         <v>799</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="15">
         <v>15.1</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31">
         <v>12</v>
@@ -2319,10 +2372,10 @@
         <v>5000</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="26">
         <v>44723</v>
